--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H2">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I2">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J2">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N2">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O2">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P2">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q2">
-        <v>408.6020099290294</v>
+        <v>373.548178254664</v>
       </c>
       <c r="R2">
-        <v>3677.418089361264</v>
+        <v>3361.933604291976</v>
       </c>
       <c r="S2">
-        <v>0.02986855548745412</v>
+        <v>0.02634539211345491</v>
       </c>
       <c r="T2">
-        <v>0.02986855548745413</v>
+        <v>0.0263453921134549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H3">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I3">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J3">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>158.044098</v>
       </c>
       <c r="O3">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P3">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q3">
-        <v>814.7964526017321</v>
+        <v>642.466169088486</v>
       </c>
       <c r="R3">
-        <v>7333.168073415589</v>
+        <v>5782.195521796375</v>
       </c>
       <c r="S3">
-        <v>0.0595611192899974</v>
+        <v>0.04531148625419392</v>
       </c>
       <c r="T3">
-        <v>0.05956111928999742</v>
+        <v>0.04531148625419391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H4">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I4">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J4">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N4">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O4">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P4">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q4">
-        <v>646.4095417163306</v>
+        <v>81.42004842853498</v>
       </c>
       <c r="R4">
-        <v>5817.685875446976</v>
+        <v>732.780435856815</v>
       </c>
       <c r="S4">
-        <v>0.04725213972326649</v>
+        <v>0.00574234657432561</v>
       </c>
       <c r="T4">
-        <v>0.04725213972326649</v>
+        <v>0.00574234657432561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H5">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I5">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J5">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N5">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O5">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P5">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q5">
-        <v>225.2613837619374</v>
+        <v>246.584089720472</v>
       </c>
       <c r="R5">
-        <v>2027.352453857436</v>
+        <v>2219.256807484248</v>
       </c>
       <c r="S5">
-        <v>0.01646646853558738</v>
+        <v>0.01739094154595591</v>
       </c>
       <c r="T5">
-        <v>0.01646646853558738</v>
+        <v>0.01739094154595591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H6">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I6">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J6">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N6">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O6">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P6">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q6">
-        <v>354.549080701352</v>
+        <v>138.426312202919</v>
       </c>
       <c r="R6">
-        <v>3190.941726312168</v>
+        <v>1245.836809826271</v>
       </c>
       <c r="S6">
-        <v>0.02591731962305705</v>
+        <v>0.009762851717936052</v>
       </c>
       <c r="T6">
-        <v>0.02591731962305706</v>
+        <v>0.009762851717936052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J7">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N7">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O7">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P7">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q7">
-        <v>1072.801608178037</v>
+        <v>1243.839676417514</v>
       </c>
       <c r="R7">
-        <v>9655.214473602329</v>
+        <v>11194.55708775762</v>
       </c>
       <c r="S7">
-        <v>0.07842113739592545</v>
+        <v>0.08772481277944265</v>
       </c>
       <c r="T7">
-        <v>0.07842113739592547</v>
+        <v>0.08772481277944265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J8">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>158.044098</v>
       </c>
       <c r="O8">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P8">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q8">
         <v>2139.282048173781</v>
@@ -948,10 +948,10 @@
         <v>19253.53843356403</v>
       </c>
       <c r="S8">
-        <v>0.1563802012875353</v>
+        <v>0.1508780598629769</v>
       </c>
       <c r="T8">
-        <v>0.1563802012875353</v>
+        <v>0.150878059862977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J9">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N9">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O9">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P9">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q9">
-        <v>1697.175195039684</v>
+        <v>271.112248932465</v>
       </c>
       <c r="R9">
-        <v>15274.57675535715</v>
+        <v>2440.010240392185</v>
       </c>
       <c r="S9">
-        <v>0.124062462379415</v>
+        <v>0.01912084952002361</v>
       </c>
       <c r="T9">
-        <v>0.1240624623794151</v>
+        <v>0.01912084952002361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J10">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N10">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O10">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P10">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q10">
-        <v>591.4331522798693</v>
+        <v>821.0750104596168</v>
       </c>
       <c r="R10">
-        <v>5322.898370518824</v>
+        <v>7389.675094136552</v>
       </c>
       <c r="S10">
-        <v>0.04323339948587009</v>
+        <v>0.05790830839059944</v>
       </c>
       <c r="T10">
-        <v>0.04323339948587009</v>
+        <v>0.05790830839059944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J11">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N11">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O11">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P11">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q11">
-        <v>930.8833894882708</v>
+        <v>460.9315461867032</v>
       </c>
       <c r="R11">
-        <v>8377.950505394438</v>
+        <v>4148.383915680329</v>
       </c>
       <c r="S11">
-        <v>0.06804700294085467</v>
+        <v>0.03250831627258278</v>
       </c>
       <c r="T11">
-        <v>0.0680470029408547</v>
+        <v>0.03250831627258279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H12">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I12">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J12">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N12">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O12">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P12">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q12">
-        <v>799.3555832875431</v>
+        <v>9.006393931322666</v>
       </c>
       <c r="R12">
-        <v>7194.200249587888</v>
+        <v>81.05754538190401</v>
       </c>
       <c r="S12">
-        <v>0.05843240124486226</v>
+        <v>0.0006351977963259516</v>
       </c>
       <c r="T12">
-        <v>0.05843240124486229</v>
+        <v>0.0006351977963259516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H13">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I13">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J13">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>158.044098</v>
       </c>
       <c r="O13">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P13">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q13">
-        <v>1594.001198729311</v>
+        <v>15.490112770444</v>
       </c>
       <c r="R13">
-        <v>14346.0107885638</v>
+        <v>139.411014933996</v>
       </c>
       <c r="S13">
-        <v>0.116520506738536</v>
+        <v>0.001092477807617008</v>
       </c>
       <c r="T13">
-        <v>0.116520506738536</v>
+        <v>0.001092477807617008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H14">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I14">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J14">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N14">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O14">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P14">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q14">
-        <v>1264.582806019577</v>
+        <v>1.96306948539</v>
       </c>
       <c r="R14">
-        <v>11381.24525417619</v>
+        <v>17.66762536851</v>
       </c>
       <c r="S14">
-        <v>0.09244022494318301</v>
+        <v>0.000138450241091256</v>
       </c>
       <c r="T14">
-        <v>0.09244022494318302</v>
+        <v>0.000138450241091256</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H15">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I15">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J15">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N15">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O15">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P15">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q15">
-        <v>440.6829639444458</v>
+        <v>5.945239673221333</v>
       </c>
       <c r="R15">
-        <v>3966.146675500012</v>
+        <v>53.507157058992</v>
       </c>
       <c r="S15">
-        <v>0.03221365348456472</v>
+        <v>0.0004193024608801688</v>
       </c>
       <c r="T15">
-        <v>0.03221365348456472</v>
+        <v>0.0004193024608801688</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H16">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I16">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J16">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N16">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O16">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P16">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q16">
-        <v>693.6108494848506</v>
+        <v>3.337512992259334</v>
       </c>
       <c r="R16">
-        <v>6242.497645363655</v>
+        <v>30.037616930334</v>
       </c>
       <c r="S16">
-        <v>0.05070252627523013</v>
+        <v>0.0002353862060729364</v>
       </c>
       <c r="T16">
-        <v>0.05070252627523015</v>
+        <v>0.0002353862060729365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H17">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N17">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O17">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P17">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q17">
-        <v>1.097301812851555</v>
+        <v>1941.85681077289</v>
       </c>
       <c r="R17">
-        <v>9.875716315664</v>
+        <v>17476.71129695601</v>
       </c>
       <c r="S17">
-        <v>8.021208728105227E-05</v>
+        <v>0.1369541657170592</v>
       </c>
       <c r="T17">
-        <v>8.02120872810523E-05</v>
+        <v>0.1369541657170592</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H18">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>158.044098</v>
       </c>
       <c r="O18">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P18">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q18">
-        <v>2.188138097265333</v>
+        <v>3339.802945806676</v>
       </c>
       <c r="R18">
-        <v>19.693242875388</v>
+        <v>30058.22651226008</v>
       </c>
       <c r="S18">
-        <v>0.0001599515484119468</v>
+        <v>0.2355477106060551</v>
       </c>
       <c r="T18">
-        <v>0.0001599515484119469</v>
+        <v>0.2355477106060551</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H19">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N19">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O19">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P19">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q19">
-        <v>1.735934588508445</v>
+        <v>423.2548430918099</v>
       </c>
       <c r="R19">
-        <v>15.623411296576</v>
+        <v>3809.293587826289</v>
       </c>
       <c r="S19">
-        <v>0.0001268957501909038</v>
+        <v>0.02985107532118807</v>
       </c>
       <c r="T19">
-        <v>0.0001268957501909039</v>
+        <v>0.02985107532118807</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H20">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N20">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O20">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P20">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q20">
-        <v>0.604940060892889</v>
+        <v>1281.845346667685</v>
       </c>
       <c r="R20">
-        <v>5.444460548036</v>
+        <v>11536.60812000917</v>
       </c>
       <c r="S20">
-        <v>4.422074619383665E-05</v>
+        <v>0.09040525493807854</v>
       </c>
       <c r="T20">
-        <v>4.422074619383666E-05</v>
+        <v>0.09040525493807854</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>63.396286</v>
+      </c>
+      <c r="H21">
+        <v>190.188858</v>
+      </c>
+      <c r="I21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="J21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.35077233333333</v>
+      </c>
+      <c r="N21">
+        <v>34.052317</v>
+      </c>
+      <c r="O21">
+        <v>0.09337704339355231</v>
+      </c>
+      <c r="P21">
+        <v>0.09337704339355232</v>
+      </c>
+      <c r="Q21">
+        <v>719.5968091648873</v>
+      </c>
+      <c r="R21">
+        <v>6476.371282483986</v>
+      </c>
+      <c r="S21">
+        <v>0.05075131189132825</v>
+      </c>
+      <c r="T21">
+        <v>0.05075131189132826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.148871</v>
+      </c>
+      <c r="H22">
+        <v>0.446613</v>
+      </c>
+      <c r="I22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.63045066666666</v>
+      </c>
+      <c r="N22">
+        <v>91.891352</v>
+      </c>
+      <c r="O22">
+        <v>0.2519811724763454</v>
+      </c>
+      <c r="P22">
+        <v>0.2519811724763454</v>
+      </c>
+      <c r="Q22">
+        <v>4.559985821197333</v>
+      </c>
+      <c r="R22">
+        <v>41.039872390776</v>
+      </c>
+      <c r="S22">
+        <v>0.0003216040700627843</v>
+      </c>
+      <c r="T22">
+        <v>0.0003216040700627843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.148871</v>
+      </c>
+      <c r="H23">
+        <v>0.446613</v>
+      </c>
+      <c r="I23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>52.681366</v>
+      </c>
+      <c r="N23">
+        <v>158.044098</v>
+      </c>
+      <c r="O23">
+        <v>0.4333828619368496</v>
+      </c>
+      <c r="P23">
+        <v>0.4333828619368496</v>
+      </c>
+      <c r="Q23">
+        <v>7.842727637786001</v>
+      </c>
+      <c r="R23">
+        <v>70.58454874007401</v>
+      </c>
+      <c r="S23">
+        <v>0.0005531274060066235</v>
+      </c>
+      <c r="T23">
+        <v>0.0005531274060066237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.148871</v>
+      </c>
+      <c r="H24">
+        <v>0.446613</v>
+      </c>
+      <c r="I24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.676334999999999</v>
+      </c>
+      <c r="N24">
+        <v>20.029005</v>
+      </c>
+      <c r="O24">
+        <v>0.05492281976039034</v>
+      </c>
+      <c r="P24">
+        <v>0.05492281976039035</v>
+      </c>
+      <c r="Q24">
+        <v>0.9939126677849999</v>
+      </c>
+      <c r="R24">
+        <v>8.945214010064999</v>
+      </c>
+      <c r="S24">
+        <v>7.009810376179749E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.009810376179749E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.04153533333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.124606</v>
-      </c>
-      <c r="I21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="J21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>22.923676</v>
-      </c>
-      <c r="N21">
-        <v>68.771028</v>
-      </c>
-      <c r="O21">
-        <v>0.144736449871725</v>
-      </c>
-      <c r="P21">
-        <v>0.1447364498717251</v>
-      </c>
-      <c r="Q21">
-        <v>0.9521425238853334</v>
-      </c>
-      <c r="R21">
-        <v>8.569282714968001</v>
-      </c>
-      <c r="S21">
-        <v>6.960103258320566E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.960103258320568E-05</v>
+      <c r="G25">
+        <v>0.148871</v>
+      </c>
+      <c r="H25">
+        <v>0.446613</v>
+      </c>
+      <c r="I25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.21956533333333</v>
+      </c>
+      <c r="N25">
+        <v>60.658696</v>
+      </c>
+      <c r="O25">
+        <v>0.1663361024328623</v>
+      </c>
+      <c r="P25">
+        <v>0.1663361024328623</v>
+      </c>
+      <c r="Q25">
+        <v>3.010106910738667</v>
+      </c>
+      <c r="R25">
+        <v>27.090962196648</v>
+      </c>
+      <c r="S25">
+        <v>0.0002122950973482373</v>
+      </c>
+      <c r="T25">
+        <v>0.0002122950973482373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.148871</v>
+      </c>
+      <c r="H26">
+        <v>0.446613</v>
+      </c>
+      <c r="I26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.35077233333333</v>
+      </c>
+      <c r="N26">
+        <v>34.052317</v>
+      </c>
+      <c r="O26">
+        <v>0.09337704339355231</v>
+      </c>
+      <c r="P26">
+        <v>0.09337704339355232</v>
+      </c>
+      <c r="Q26">
+        <v>1.689800828035667</v>
+      </c>
+      <c r="R26">
+        <v>15.208207452321</v>
+      </c>
+      <c r="S26">
+        <v>0.0001191773056322878</v>
+      </c>
+      <c r="T26">
+        <v>0.0001191773056322878</v>
       </c>
     </row>
   </sheetData>
